--- a/test_output.xlsx
+++ b/test_output.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedigoz/Documents/MSK_Coding_Projects/CiscoScheduledReboot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FDE701F-DC58-8948-8F56-3B753AE32B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381EC7C5-EAC4-5542-A024-2060A1338F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7520" yWindow="1920" windowWidth="28320" windowHeight="19060" tabRatio="334"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TMS Excel Export 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>System ID</t>
   </si>
@@ -34,49 +34,25 @@
     <t>Status</t>
   </si>
   <si>
-    <t>993</t>
-  </si>
-  <si>
-    <t>633ThirdAve_5Fl_TechLabCodecPlus</t>
-  </si>
-  <si>
-    <t>172.16.131.191</t>
-  </si>
-  <si>
-    <t>Idle</t>
-  </si>
-  <si>
-    <t>994</t>
-  </si>
-  <si>
-    <t>633ThirdAve_5Fl_TechLabRoomkitMini</t>
-  </si>
-  <si>
-    <t>172.16.131.99</t>
-  </si>
-  <si>
-    <t>996</t>
-  </si>
-  <si>
-    <t>633ThirdAve_5Fl_TechLabCodecPro</t>
-  </si>
-  <si>
-    <t>172.16.131.163</t>
-  </si>
-  <si>
-    <t>998</t>
-  </si>
-  <si>
-    <t>633ThirdAve_5Fl_TechLabRoomBar</t>
-  </si>
-  <si>
-    <t>172.16.131.13</t>
+    <t>1025</t>
+  </si>
+  <si>
+    <t>633ThirdAve_5Fl_CollaborationArea</t>
+  </si>
+  <si>
+    <t>In Call</t>
+  </si>
+  <si>
+    <t>172.16.131.182</t>
+  </si>
+  <si>
+    <t>bunk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -430,10 +406,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -454,7 +432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -462,52 +440,24 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
